--- a/Code/Results/Cases/Case_0_191/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_191/res_line/loading_percent.xlsx
@@ -420,23 +420,20 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.932455851568072</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>16.11957973449465</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7.982714926826397</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>123.0179702750948</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.947564441077609</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,18 +442,9 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>12.58442710830857</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
@@ -467,115 +455,805 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>4.805489392799115</v>
+      </c>
+      <c r="D3">
+        <v>15.60102828237181</v>
+      </c>
+      <c r="E3">
+        <v>7.936176927225966</v>
+      </c>
+      <c r="F3">
+        <v>120.8580723730239</v>
+      </c>
+      <c r="G3">
+        <v>3.97567376056674</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>12.64018574344451</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>4.730040306650402</v>
+      </c>
+      <c r="D4">
+        <v>15.28862729676329</v>
+      </c>
+      <c r="E4">
+        <v>7.907964105668776</v>
+      </c>
+      <c r="F4">
+        <v>119.6054370910185</v>
+      </c>
+      <c r="G4">
+        <v>3.993428863540027</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>12.67930056391685</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>4.699935233641162</v>
+      </c>
+      <c r="D5">
+        <v>15.16291755560437</v>
+      </c>
+      <c r="E5">
+        <v>7.896543388689879</v>
+      </c>
+      <c r="F5">
+        <v>119.1132588632134</v>
+      </c>
+      <c r="G5">
+        <v>4.000795225964026</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>12.69644238661436</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>4.694975333772129</v>
+      </c>
+      <c r="D6">
+        <v>15.14214274042789</v>
+      </c>
+      <c r="E6">
+        <v>7.894651182615934</v>
+      </c>
+      <c r="F6">
+        <v>119.032630679137</v>
+      </c>
+      <c r="G6">
+        <v>4.002026493944003</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>12.69936069751349</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>4.729631689662734</v>
+      </c>
+      <c r="D7">
+        <v>15.28692534334066</v>
+      </c>
+      <c r="E7">
+        <v>7.907809791848774</v>
+      </c>
+      <c r="F7">
+        <v>119.59872567505</v>
+      </c>
+      <c r="G7">
+        <v>3.993527670379611</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>12.67952690802804</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>4.888162880962975</v>
+      </c>
+      <c r="D8">
+        <v>15.93958996886077</v>
+      </c>
+      <c r="E8">
+        <v>7.966584325651155</v>
+      </c>
+      <c r="F8">
+        <v>122.2578439855639</v>
+      </c>
+      <c r="G8">
+        <v>3.957157576248973</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>12.60262473497728</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>5.2186029914242</v>
+      </c>
+      <c r="D9">
+        <v>17.26380153443457</v>
+      </c>
+      <c r="E9">
+        <v>8.085443603998975</v>
+      </c>
+      <c r="F9">
+        <v>128.066173283463</v>
+      </c>
+      <c r="G9">
+        <v>3.889457464508542</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>12.49173803892276</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>5.473109325729137</v>
+      </c>
+      <c r="D10">
+        <v>18.26093914876195</v>
+      </c>
+      <c r="E10">
+        <v>8.176107687106787</v>
+      </c>
+      <c r="F10">
+        <v>132.7125326995609</v>
+      </c>
+      <c r="G10">
+        <v>3.84144181105767</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>12.43645335318514</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>5.591502235944334</v>
+      </c>
+      <c r="D11">
+        <v>18.71976027333087</v>
+      </c>
+      <c r="E11">
+        <v>8.21837126872434</v>
+      </c>
+      <c r="F11">
+        <v>134.913570796426</v>
+      </c>
+      <c r="G11">
+        <v>3.819849223332301</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>12.41745388998575</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>5.636725035462366</v>
+      </c>
+      <c r="D12">
+        <v>18.89428975424938</v>
+      </c>
+      <c r="E12">
+        <v>8.234550211132717</v>
+      </c>
+      <c r="F12">
+        <v>135.7601561690829</v>
+      </c>
+      <c r="G12">
+        <v>3.811696863576206</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>12.41118776025486</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>5.626967839163256</v>
+      </c>
+      <c r="D13">
+        <v>18.85666590911084</v>
+      </c>
+      <c r="E13">
+        <v>8.231057533434525</v>
+      </c>
+      <c r="F13">
+        <v>135.577236170523</v>
+      </c>
+      <c r="G13">
+        <v>3.813451741882456</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>12.41249522593087</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>5.595214817306783</v>
+      </c>
+      <c r="D14">
+        <v>18.73410288334799</v>
+      </c>
+      <c r="E14">
+        <v>8.219698646406322</v>
+      </c>
+      <c r="F14">
+        <v>134.9829537662738</v>
+      </c>
+      <c r="G14">
+        <v>3.819178109230353</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>12.41691949037596</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>5.575816516879637</v>
+      </c>
+      <c r="D15">
+        <v>18.65913320590215</v>
+      </c>
+      <c r="E15">
+        <v>8.212764637250922</v>
+      </c>
+      <c r="F15">
+        <v>134.6206629380578</v>
+      </c>
+      <c r="G15">
+        <v>3.822688465615731</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>12.41975180548817</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>5.465425701166842</v>
+      </c>
+      <c r="D16">
+        <v>18.23106114342227</v>
+      </c>
+      <c r="E16">
+        <v>8.173368495544695</v>
+      </c>
+      <c r="F16">
+        <v>132.5704906079683</v>
+      </c>
+      <c r="G16">
+        <v>3.842857003840203</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>12.43782242824607</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>5.398381809447113</v>
+      </c>
+      <c r="D17">
+        <v>17.96980175778002</v>
+      </c>
+      <c r="E17">
+        <v>8.149480261135347</v>
+      </c>
+      <c r="F17">
+        <v>131.335495415865</v>
+      </c>
+      <c r="G17">
+        <v>3.85528592600004</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>12.45051318989135</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>5.360064938832104</v>
+      </c>
+      <c r="D18">
+        <v>17.8200193235324</v>
+      </c>
+      <c r="E18">
+        <v>8.135834516332615</v>
+      </c>
+      <c r="F18">
+        <v>130.633344782116</v>
+      </c>
+      <c r="G18">
+        <v>3.862459020449048</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>12.45838850400731</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>5.347133304671106</v>
+      </c>
+      <c r="D19">
+        <v>17.76938878749117</v>
+      </c>
+      <c r="E19">
+        <v>8.131229676183548</v>
+      </c>
+      <c r="F19">
+        <v>130.3970005295366</v>
+      </c>
+      <c r="G19">
+        <v>3.864892213677563</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>12.46115259910286</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>5.405493317443607</v>
+      </c>
+      <c r="D20">
+        <v>17.99756273106033</v>
+      </c>
+      <c r="E20">
+        <v>8.15201327085145</v>
+      </c>
+      <c r="F20">
+        <v>131.4661121236774</v>
+      </c>
+      <c r="G20">
+        <v>3.853960410156541</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>12.44910232646664</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>5.604530712727931</v>
+      </c>
+      <c r="D21">
+        <v>18.77008088769275</v>
+      </c>
+      <c r="E21">
+        <v>8.223030045609745</v>
+      </c>
+      <c r="F21">
+        <v>135.157148408454</v>
+      </c>
+      <c r="G21">
+        <v>3.817495577645064</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>12.41559439783494</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>5.73689923235614</v>
+      </c>
+      <c r="D22">
+        <v>19.27957854559153</v>
+      </c>
+      <c r="E22">
+        <v>8.270477372679505</v>
+      </c>
+      <c r="F22">
+        <v>137.6461700098735</v>
+      </c>
+      <c r="G22">
+        <v>3.793798708754333</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>12.39913176482436</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>5.666035582444496</v>
+      </c>
+      <c r="D23">
+        <v>19.00720696228406</v>
+      </c>
+      <c r="E23">
+        <v>8.245048998190105</v>
+      </c>
+      <c r="F23">
+        <v>136.3104968812921</v>
+      </c>
+      <c r="G23">
+        <v>3.806438077783207</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>12.40740471795779</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>5.402277496796307</v>
+      </c>
+      <c r="D24">
+        <v>17.9850106917371</v>
+      </c>
+      <c r="E24">
+        <v>8.150867825371389</v>
+      </c>
+      <c r="F24">
+        <v>131.4070358520896</v>
+      </c>
+      <c r="G24">
+        <v>3.854559589222512</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>12.44973837693695</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>5.12715101574344</v>
+      </c>
+      <c r="D25">
+        <v>16.90119130888069</v>
+      </c>
+      <c r="E25">
+        <v>8.052793006820036</v>
+      </c>
+      <c r="F25">
+        <v>126.4297117227946</v>
+      </c>
+      <c r="G25">
+        <v>3.907431347658269</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>12.51728244900558</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
